--- a/Hoàng/2025/T5/CT PT VÀ KHAI THÁC HẠ TẦNG KHU CÔNG NGHIỆP ĐÀ NẴNG (74-2025)/DS, DM KSK CÔNG TY PHÁT TRIỂN VÀ KHAI THÁC HẠ TẦNG KCN ĐÀ NẴNG.xlsx
+++ b/Hoàng/2025/T5/CT PT VÀ KHAI THÁC HẠ TẦNG KHU CÔNG NGHIỆP ĐÀ NẴNG (74-2025)/DS, DM KSK CÔNG TY PHÁT TRIỂN VÀ KHAI THÁC HẠ TẦNG KCN ĐÀ NẴNG.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DATA-TN\Hoàng\2025\CT PT VÀ KHAI THÁC HẠ TẦNG KHU CÔNG NGHIỆP ĐÀ NẴNG (74-2025)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DATA-TN\Hoàng\2025\T5\CT PT VÀ KHAI THÁC HẠ TẦNG KHU CÔNG NGHIỆP ĐÀ NẴNG (74-2025)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF966AA5-BB22-4AAB-AFAD-711DE48E3D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DA7266-4D2B-4CC4-8CA3-568EC42CDFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DS" sheetId="2" r:id="rId1"/>
     <sheet name="DM" sheetId="3" r:id="rId2"/>
-    <sheet name="DS VIP" sheetId="5" r:id="rId3"/>
+    <sheet name="DS VIP" sheetId="5" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DS!$A$1:$F$40</definedName>
@@ -948,18 +948,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919FC587-F844-4FA3-8344-E21A9C02D18B}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:F40"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1763,7 +1763,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F40" xr:uid="{919FC587-F844-4FA3-8344-E21A9C02D18B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1771,8 +1773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70A52B9-70EA-4674-8342-83C5849E4D5A}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
